--- a/data/case1/11/V1_13.xlsx
+++ b/data/case1/11/V1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999464874878</v>
+        <v>0.99999999764042957</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99871316808371091</v>
+        <v>0.99840872636903522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99565437769034837</v>
+        <v>0.99444185349559966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99924983431400483</v>
+        <v>0.99737906000968635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98971485806883641</v>
+        <v>0.98716331046137751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97004852276941844</v>
+        <v>0.96386655402163179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96636809386423561</v>
+        <v>0.96154300311093077</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9616634551021388</v>
+        <v>0.95795443442491424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95750535380694712</v>
+        <v>0.95616691640727103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95427432466474982</v>
+        <v>0.94561898153384183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95387685458615978</v>
+        <v>0.94405838322734748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95337650672373697</v>
+        <v>0.94127889080847793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95301352887869029</v>
+        <v>0.92999291149349372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95371988358883453</v>
+        <v>0.92582571425501281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95568364528189109</v>
+        <v>0.92323428172701205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95857111141662976</v>
+        <v>0.92072783560568472</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.95486353350742981</v>
+        <v>0.91701992044097724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.953754634382043</v>
+        <v>0.91591098749826327</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99760454747132266</v>
+        <v>0.99720778719193892</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98994300968803706</v>
+        <v>0.98857517913633464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98845632313444587</v>
+        <v>0.98717665980794256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98709878632387027</v>
+        <v>0.98591215011157096</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98862033840175445</v>
+        <v>0.98740766877049668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97560023718867139</v>
+        <v>0.97438743041662068</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96914336842692284</v>
+        <v>0.96793053037325727</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96748542206591703</v>
+        <v>0.96064648256160368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96412921749218361</v>
+        <v>0.95640541301109039</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95405165663120228</v>
+        <v>0.93864529777759798</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9450286952165563</v>
+        <v>0.92610509363614391</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.94065142412258651</v>
+        <v>0.92054821675901588</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93299883495634206</v>
+        <v>0.9128949141895899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93131955050724047</v>
+        <v>0.91121556409244442</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93079954116019437</v>
+        <v>0.91069554208667858</v>
       </c>
     </row>
   </sheetData>
